--- a/global_data/day_data/002327.xlsx
+++ b/global_data/day_data/002327.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3709"/>
+  <dimension ref="A1:I3711"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -107969,6 +107971,64 @@
         <v>0.02597068745067461</v>
       </c>
     </row>
+    <row r="3710" spans="1:9">
+      <c r="A3710" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3710">
+        <v>7.95</v>
+      </c>
+      <c r="C3710">
+        <v>7.98</v>
+      </c>
+      <c r="D3710">
+        <v>7.86</v>
+      </c>
+      <c r="E3710">
+        <v>7.89</v>
+      </c>
+      <c r="F3710">
+        <v>5193800</v>
+      </c>
+      <c r="G3710">
+        <v>41025919</v>
+      </c>
+      <c r="H3710">
+        <v>487745772</v>
+      </c>
+      <c r="I3710">
+        <v>0.01064858026078389</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:9">
+      <c r="A3711" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3711">
+        <v>7.89</v>
+      </c>
+      <c r="C3711">
+        <v>7.99</v>
+      </c>
+      <c r="D3711">
+        <v>7.77</v>
+      </c>
+      <c r="E3711">
+        <v>7.78</v>
+      </c>
+      <c r="F3711">
+        <v>9473699</v>
+      </c>
+      <c r="G3711">
+        <v>74566092</v>
+      </c>
+      <c r="H3711">
+        <v>487745772</v>
+      </c>
+      <c r="I3711">
+        <v>0.01942343643729217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
